--- a/氣象性能評估工具V2/data/obs/2016-06-12_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-12_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="188">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>21.3</t>
+  </si>
+  <si>
     <t>2016-06-12-00</t>
   </si>
   <si>
-    <t>21.3</t>
-  </si>
-  <si>
     <t>25.9</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>26.1</t>
   </si>
   <si>
+    <t>21.6</t>
+  </si>
+  <si>
     <t>2016-06-12-01</t>
   </si>
   <si>
-    <t>21.6</t>
-  </si>
-  <si>
     <t>25.6</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>25.1</t>
   </si>
   <si>
+    <t>21.9</t>
+  </si>
+  <si>
     <t>2016-06-12-02</t>
   </si>
   <si>
-    <t>21.9</t>
-  </si>
-  <si>
     <t>26.4</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>26.5</t>
   </si>
   <si>
+    <t>22.1</t>
+  </si>
+  <si>
     <t>2016-06-12-03</t>
   </si>
   <si>
-    <t>22.1</t>
-  </si>
-  <si>
     <t>22.0</t>
   </si>
   <si>
@@ -319,12 +319,12 @@
     <t>28.8</t>
   </si>
   <si>
+    <t>23.4</t>
+  </si>
+  <si>
     <t>2016-06-12-07</t>
   </si>
   <si>
-    <t>23.4</t>
-  </si>
-  <si>
     <t>24.6</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>29.9</t>
   </si>
   <si>
+    <t>23.8</t>
+  </si>
+  <si>
     <t>2016-06-12-08</t>
   </si>
   <si>
-    <t>23.8</t>
-  </si>
-  <si>
     <t>28.2</t>
   </si>
   <si>
@@ -454,24 +454,24 @@
     <t>21.5</t>
   </si>
   <si>
+    <t>23.6</t>
+  </si>
+  <si>
     <t>2016-06-12-12</t>
   </si>
   <si>
-    <t>23.6</t>
-  </si>
-  <si>
     <t>31.1</t>
   </si>
   <si>
     <t>28.6</t>
   </si>
   <si>
+    <t>24.0</t>
+  </si>
+  <si>
     <t>2016-06-12-13</t>
   </si>
   <si>
-    <t>24.0</t>
-  </si>
-  <si>
     <t>21.2</t>
   </si>
   <si>
@@ -481,12 +481,12 @@
     <t>27.5</t>
   </si>
   <si>
+    <t>23.0</t>
+  </si>
+  <si>
     <t>2016-06-12-14</t>
   </si>
   <si>
-    <t>23.0</t>
-  </si>
-  <si>
     <t>24.3</t>
   </si>
   <si>
@@ -496,12 +496,12 @@
     <t>7.6</t>
   </si>
   <si>
+    <t>22.5</t>
+  </si>
+  <si>
     <t>2016-06-12-15</t>
   </si>
   <si>
-    <t>22.5</t>
-  </si>
-  <si>
     <t>2016-06-12-16</t>
   </si>
   <si>
@@ -529,12 +529,12 @@
     <t>21.8</t>
   </si>
   <si>
+    <t>20.9</t>
+  </si>
+  <si>
     <t>2016-06-12-19</t>
   </si>
   <si>
-    <t>20.9</t>
-  </si>
-  <si>
     <t>22.7</t>
   </si>
   <si>
@@ -571,10 +571,10 @@
     <t>13.3</t>
   </si>
   <si>
+    <t>23.1</t>
+  </si>
+  <si>
     <t>2016-06-12-23</t>
-  </si>
-  <si>
-    <t>23.1</t>
   </si>
   <si>
     <t>20.4</t>
@@ -584,6 +584,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -613,8 +616,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,11 +997,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1070,11 +1074,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
@@ -1147,11 +1151,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1224,11 +1228,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
         <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
@@ -1301,7 +1305,7 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B6" t="s">
@@ -1378,7 +1382,7 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B7" t="s">
@@ -1455,7 +1459,7 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B8" t="s">
@@ -1498,7 +1502,7 @@
         <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P8" t="s">
         <v>95</v>
@@ -1532,11 +1536,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
         <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -1575,7 +1579,7 @@
         <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P9" t="s">
         <v>95</v>
@@ -1609,11 +1613,11 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
         <v>109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>110</v>
       </c>
       <c r="C10" t="s">
         <v>111</v>
@@ -1686,7 +1690,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B11" t="s">
@@ -1763,7 +1767,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B12" t="s">
@@ -1840,7 +1844,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B13" t="s">
@@ -1917,11 +1921,11 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" t="s">
         <v>146</v>
-      </c>
-      <c r="B14" t="s">
-        <v>147</v>
       </c>
       <c r="C14" t="s">
         <v>118</v>
@@ -1994,11 +1998,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
         <v>150</v>
-      </c>
-      <c r="B15" t="s">
-        <v>151</v>
       </c>
       <c r="C15" t="s">
         <v>100</v>
@@ -2028,7 +2032,7 @@
         <v>100</v>
       </c>
       <c r="L15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M15" t="s">
         <v>42</v>
@@ -2071,11 +2075,11 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" t="s">
         <v>155</v>
-      </c>
-      <c r="B16" t="s">
-        <v>156</v>
       </c>
       <c r="C16" t="s">
         <v>94</v>
@@ -2148,11 +2152,11 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
         <v>160</v>
-      </c>
-      <c r="B17" t="s">
-        <v>161</v>
       </c>
       <c r="C17" t="s">
         <v>149</v>
@@ -2225,7 +2229,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B18" t="s">
@@ -2302,7 +2306,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B19" t="s">
@@ -2312,7 +2316,7 @@
         <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
         <v>71</v>
@@ -2379,7 +2383,7 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B20" t="s">
@@ -2456,11 +2460,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" t="s">
         <v>171</v>
-      </c>
-      <c r="B21" t="s">
-        <v>172</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
@@ -2533,7 +2537,7 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B22" t="s">
@@ -2543,7 +2547,7 @@
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
         <v>96</v>
@@ -2610,7 +2614,7 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B23" t="s">
@@ -2687,7 +2691,7 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B24" t="s">
@@ -2764,11 +2768,11 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" t="s">
         <v>185</v>
-      </c>
-      <c r="B25" t="s">
-        <v>186</v>
       </c>
       <c r="C25" t="s">
         <v>108</v>
